--- a/HRMS/MstMileStone.xlsx
+++ b/HRMS/MstMileStone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Table Name - MstMileStone</t>
   </si>
@@ -95,13 +95,40 @@
   </si>
   <si>
     <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take MileStoneName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get WorkCategoryId  (MstWorkCategory) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get WorkSubCategoryId  (MstWorkSubCategory) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get MileStoneTypeId  (MstMileStoneType) in Numaric </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +143,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,14 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -169,6 +202,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +519,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,1093 +528,1111 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/MstMileStone.xlsx
+++ b/HRMS/MstMileStone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Table Name - MstMileStone</t>
   </si>
@@ -122,13 +122,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get MileStoneTypeId  (MstMileStoneType) in Numaric </t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,16 +213,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +533,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,32 +547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -596,7 +610,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -604,7 +618,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -613,7 +627,7 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="5"/>
@@ -622,7 +636,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -631,7 +645,7 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="5"/>
@@ -640,7 +654,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -650,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -658,7 +672,7 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -668,7 +682,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -686,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -704,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -722,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -740,19 +754,19 @@
         <v>22</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1635,9 +1649,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/MstMileStone.xlsx
+++ b/HRMS/MstMileStone.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - MstMileStone</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में माइलस्टोन का विवरण  है</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -576,22 +576,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -599,19 +599,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -637,16 +637,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -655,17 +655,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -673,17 +673,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,17 +691,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,17 +709,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,17 +727,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -745,22 +745,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
